--- a/pred_ohlcv/54_21/2019-10-25 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-16519.9327</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-14870.4298</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-14870.4298</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-14870.4298</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-13539.9856</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-13539.9856</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-17239.5428</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16788.1613</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-16735.04399999999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-16735.04399999999</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-17983.04399999999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6926.499000000005</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>26933.14910000001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>20401.33363423</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>39795.11093423</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>39795.11093423</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>41568.11093423</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>42524.35053423</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>47217.45223423</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>49483.99423423001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>47169.26673423</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>47169.26673423</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>46636.50633423001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>47541.30743423</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>47014.70143423</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>153834.74493111</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>139820.41953111</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>144877.98083111</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>152187.01405821</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>151488.63418531</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>135545.51626438</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>163390.80936438</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>157288.42786438</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>161800.87066438</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>161800.87066438</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>157682.57866438</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>157682.57866438</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>155682.57866438</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>165010.7486643801</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>163461.6231643801</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>162863.6373643801</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>168096.3652643801</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>168096.3652643801</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>166433.7868643801</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>165564.4980643801</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>165565.4980643801</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>163517.5293643801</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>163205.83796438</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>163205.83796438</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>163206.83796438</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>163206.83796438</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>164172.11626438</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>161229.9559643801</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>162994.5891643801</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>162994.5891643801</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>168094.5891643801</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>167619.1054643801</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>167619.1054643801</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>167619.1054643801</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>158115.8252643801</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>159419.72816438</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>161690.56306438</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>153097.80666438</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>149752.81236438</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>53230.24894032996</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>64781.69954032996</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>64323.38574032996</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>64325.33874032996</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-16519.9327</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-14870.4298</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-14870.4298</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-14870.4298</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-13539.9856</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-13539.9856</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-17239.5428</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-17066.17389999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16074.70749999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16788.1613</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-16735.04399999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-16735.04399999999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-17983.04399999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>26933.14910000001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>20401.33363423</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>39795.11093423</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>39795.11093423</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>41568.11093423</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>42524.35053423</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>47217.45223423</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>49483.99423423001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>47169.26673423</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>47169.26673423</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>46636.50633423001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>47541.30743423</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>47014.70143423</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>145418.5758745</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>145418.5758745</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>151589.6588745</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>153834.74493111</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>139820.41953111</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>144877.98083111</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>152187.01405821</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>151488.63418531</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>143389.37106438</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>135545.51626438</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>163390.80936438</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>157288.42786438</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>161800.87066438</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>161800.87066438</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>157678.57866438</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>157682.57866438</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>157682.57866438</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>155682.57866438</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>53230.24894032996</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>64781.69954032996</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>64323.38574032996</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>64325.33874032996</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
